--- a/Gemeenterapportage/1. Configuratie - Gemeente.xlsx
+++ b/Gemeenterapportage/1. Configuratie - Gemeente.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanderve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{B3C23C33-3E57-401D-B56E-786C998E3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4899E6-5761-4745-883F-9C286CD2731B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C30A115-0897-42A2-A446-BE860A72FE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
@@ -620,9 +620,6 @@
     <t>Roken, vapen en drugs</t>
   </si>
   <si>
-    <t>LBRAK3S19; LBGEK3S4; LBSDK3S1</t>
-  </si>
-  <si>
     <t>Rookt wekelijks; Vapet wekelijks; Wiet/hasj ooit</t>
   </si>
   <si>
@@ -1050,9 +1047,6 @@
     <t>2. Template - Gemeente.pptx</t>
   </si>
   <si>
-    <t>Gemeente; Regio</t>
-  </si>
-  <si>
     <t>Venlo; Limburg-Noord</t>
   </si>
   <si>
@@ -1092,12 +1086,6 @@
     <t>naam_aanduiding</t>
   </si>
   <si>
-    <t>Gemeente</t>
-  </si>
-  <si>
-    <t>Regio</t>
-  </si>
-  <si>
     <t>geen</t>
   </si>
   <si>
@@ -1114,6 +1102,18 @@
   </si>
   <si>
     <t>EBEGK3S2; EBGLK3S1</t>
+  </si>
+  <si>
+    <t>LBRAK3S19; LBGEK3S3; LBSDK3S1</t>
+  </si>
+  <si>
+    <t>var_Gemeente; var_Regio</t>
+  </si>
+  <si>
+    <t>var_Regio</t>
+  </si>
+  <si>
+    <t>var_Gemeente</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1338,6 +1338,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1677,77 +1680,77 @@
         <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>263</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" s="19" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1778,7 @@
     <col min="5" max="5" width="10.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.44140625" style="19" customWidth="1"/>
     <col min="12" max="12" width="15.109375" style="4" customWidth="1"/>
@@ -1798,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1809,23 +1812,23 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1846,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1881,18 +1884,18 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="I4" s="4" t="s">
-        <v>256</v>
+      <c r="I4" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J4" s="4">
         <v>2023</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
@@ -1918,8 +1921,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="I5" s="4" t="s">
-        <v>270</v>
+      <c r="I5" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J5" s="4">
         <v>2023</v>
@@ -1951,8 +1954,8 @@
         <v>23</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="I6" s="4" t="s">
-        <v>270</v>
+      <c r="I6" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J6" s="4">
         <v>2023</v>
@@ -1984,8 +1987,8 @@
         <v>26</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="I7" s="4" t="s">
-        <v>270</v>
+      <c r="I7" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J7" s="4">
         <v>2023</v>
@@ -2017,8 +2020,8 @@
         <v>4</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="I8" s="4" t="s">
-        <v>270</v>
+      <c r="I8" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J8" s="4">
         <v>2023</v>
@@ -2050,8 +2053,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="I9" s="4" t="s">
-        <v>270</v>
+      <c r="I9" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J9" s="4">
         <v>2023</v>
@@ -2083,8 +2086,8 @@
         <v>1</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="I10" s="4" t="s">
-        <v>271</v>
+      <c r="I10" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J10" s="4">
         <v>2023</v>
@@ -2116,8 +2119,8 @@
         <v>1</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="I11" s="4" t="s">
-        <v>270</v>
+      <c r="I11" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J11" s="4">
         <v>2023</v>
@@ -2149,8 +2152,8 @@
         <v>1</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="I12" s="4" t="s">
-        <v>271</v>
+      <c r="I12" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J12" s="4">
         <v>2023</v>
@@ -2176,14 +2179,14 @@
         <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="I13" s="4" t="s">
-        <v>270</v>
+      <c r="I13" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J13" s="4">
         <v>2023</v>
@@ -2206,10 +2209,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>40</v>
@@ -2220,8 +2223,8 @@
       <c r="H14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>270</v>
+      <c r="I14" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J14" s="4">
         <v>2023</v>
@@ -2259,8 +2262,8 @@
       <c r="H15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>270</v>
+      <c r="I15" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J15" s="4">
         <v>2023</v>
@@ -2298,8 +2301,8 @@
       <c r="H16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>270</v>
+      <c r="I16" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J16" s="4">
         <v>2023</v>
@@ -2337,8 +2340,8 @@
       <c r="H17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>270</v>
+      <c r="I17" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J17" s="4">
         <v>2023</v>
@@ -2376,8 +2379,8 @@
       <c r="H18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>270</v>
+      <c r="I18" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J18" s="4">
         <v>2023</v>
@@ -2400,7 +2403,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>61</v>
@@ -2414,8 +2417,8 @@
       <c r="H19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>270</v>
+      <c r="I19" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J19" s="4">
         <v>2023</v>
@@ -2430,7 +2433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2447,8 +2450,8 @@
         <v>40</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="I20" s="4" t="s">
-        <v>256</v>
+      <c r="I20" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>67</v>
@@ -2463,7 +2466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2480,8 +2483,8 @@
         <v>40</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="I21" s="4" t="s">
-        <v>256</v>
+      <c r="I21" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>67</v>
@@ -2507,19 +2510,19 @@
         <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>270</v>
+      <c r="I22" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J22" s="4">
         <v>2023</v>
@@ -2545,19 +2548,19 @@
         <v>47</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>270</v>
+      <c r="I23" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J23" s="4">
         <v>2023</v>
@@ -2577,7 +2580,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -2589,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="I24" s="4" t="s">
         <v>270</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J24" s="4">
         <v>2023</v>
@@ -2612,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -2623,8 +2626,8 @@
       <c r="E25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>271</v>
+      <c r="I25" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J25" s="4">
         <v>2023</v>
@@ -2639,7 +2642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -2655,8 +2658,8 @@
       <c r="E26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>256</v>
+      <c r="I26" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>67</v>
@@ -2682,13 +2685,13 @@
         <v>19</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>270</v>
+      <c r="I27" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J27" s="4">
         <v>2023</v>
@@ -2714,13 +2717,13 @@
         <v>19</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>271</v>
+      <c r="I28" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J28" s="4">
         <v>2023</v>
@@ -2757,8 +2760,8 @@
       <c r="H29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>270</v>
+      <c r="I29" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J29" s="4">
         <v>2023</v>
@@ -2795,8 +2798,8 @@
       <c r="H30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>270</v>
+      <c r="I30" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J30" s="4">
         <v>2023</v>
@@ -2816,7 +2819,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>89</v>
@@ -2828,8 +2831,8 @@
         <v>91</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="I31" s="4" t="s">
-        <v>270</v>
+      <c r="I31" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J31" s="4">
         <v>2023</v>
@@ -2852,19 +2855,19 @@
         <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>270</v>
+        <v>217</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J32" s="4">
         <v>2023</v>
@@ -2887,7 +2890,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>96</v>
@@ -2898,8 +2901,8 @@
       <c r="F33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>270</v>
+      <c r="I33" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J33" s="4">
         <v>2023</v>
@@ -2914,7 +2917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2928,10 +2931,10 @@
         <v>100</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>256</v>
+        <v>228</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J34" s="4">
         <v>2023</v>
@@ -2951,19 +2954,19 @@
         <v>17</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>270</v>
+      <c r="I35" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J35" s="4">
         <v>2023</v>
@@ -2975,10 +2978,10 @@
         <v>11</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -2995,8 +2998,8 @@
         <v>40</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="I36" s="4" t="s">
-        <v>256</v>
+      <c r="I36" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>67</v>
@@ -3022,14 +3025,14 @@
         <v>19</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="I37" s="4" t="s">
-        <v>270</v>
+      <c r="I37" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J37" s="4">
         <v>2023</v>
@@ -3055,14 +3058,14 @@
         <v>19</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="I38" s="4" t="s">
-        <v>271</v>
+      <c r="I38" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J38" s="4">
         <v>2023</v>
@@ -3095,8 +3098,8 @@
       </c>
       <c r="F39" s="25"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="4" t="s">
-        <v>270</v>
+      <c r="I39" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J39" s="4">
         <v>2023</v>
@@ -3129,8 +3132,8 @@
       </c>
       <c r="F40" s="25"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="4" t="s">
-        <v>271</v>
+      <c r="I40" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J40" s="4">
         <v>2023</v>
@@ -3156,19 +3159,19 @@
         <v>47</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>270</v>
+      <c r="I41" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J41" s="4">
         <v>2023</v>
@@ -3180,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -3194,19 +3197,19 @@
         <v>47</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>270</v>
+      <c r="I42" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J42" s="4">
         <v>2023</v>
@@ -3218,29 +3221,29 @@
         <v>11</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="25"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="4" t="s">
-        <v>256</v>
+      <c r="I43" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J43" s="4">
         <v>2023</v>
@@ -3252,28 +3255,28 @@
         <v>12</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="25"/>
-      <c r="I44" s="4" t="s">
-        <v>256</v>
+      <c r="I44" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J44" s="4">
         <v>2023</v>
@@ -3285,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -3293,25 +3296,25 @@
         <v>38</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>270</v>
+      <c r="I45" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J45" s="4">
         <v>2023</v>
@@ -3323,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -3331,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>270</v>
+      <c r="I46" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J46" s="4">
         <v>2023</v>
@@ -3361,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3369,20 +3372,20 @@
         <v>17</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F47" s="25"/>
-      <c r="I47" s="4" t="s">
-        <v>270</v>
+      <c r="I47" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J47" s="4">
         <v>2023</v>
@@ -3394,7 +3397,7 @@
         <v>13</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -3402,22 +3405,22 @@
         <v>17</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="E48" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>270</v>
+      <c r="I48" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J48" s="4">
         <v>2023</v>
@@ -3429,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -3437,20 +3440,20 @@
         <v>17</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="10"/>
-      <c r="I49" s="4" t="s">
-        <v>270</v>
+      <c r="I49" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J49" s="4">
         <v>2023</v>
@@ -3462,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -3470,20 +3473,20 @@
         <v>17</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="10"/>
-      <c r="I50" s="4" t="s">
-        <v>270</v>
+      <c r="I50" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J50" s="4">
         <v>2023</v>
@@ -3495,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -3503,20 +3506,20 @@
         <v>17</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F51" s="10"/>
-      <c r="I51" s="4" t="s">
-        <v>270</v>
+      <c r="I51" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J51" s="4">
         <v>2023</v>
@@ -3528,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -3536,20 +3539,20 @@
         <v>17</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="I52" s="4" t="s">
-        <v>270</v>
+      <c r="I52" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J52" s="4">
         <v>2023</v>
@@ -3561,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -3569,25 +3572,25 @@
         <v>17</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>270</v>
+      <c r="I53" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J53" s="4">
         <v>2023</v>
@@ -3599,27 +3602,27 @@
         <v>13</v>
       </c>
       <c r="N53" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>256</v>
+        <v>227</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J54" s="4">
         <v>2023</v>
@@ -3631,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -3639,20 +3642,20 @@
         <v>17</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F55" s="25"/>
-      <c r="I55" s="4" t="s">
-        <v>270</v>
+      <c r="I55" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J55" s="4">
         <v>2023</v>
@@ -3664,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3672,20 +3675,20 @@
         <v>17</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="25"/>
-      <c r="I56" s="4" t="s">
-        <v>271</v>
+      <c r="I56" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J56" s="4">
         <v>2023</v>
@@ -3697,7 +3700,7 @@
         <v>14</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -3705,13 +3708,13 @@
         <v>17</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>40</v>
@@ -3723,8 +3726,8 @@
       <c r="H57" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>270</v>
+      <c r="I57" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J57" s="4">
         <v>2023</v>
@@ -3736,7 +3739,7 @@
         <v>14</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="69" x14ac:dyDescent="0.3">
@@ -3744,22 +3747,22 @@
         <v>17</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="15" t="s">
+      <c r="E58" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>270</v>
+      <c r="I58" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J58" s="4">
         <v>2023</v>
@@ -3771,28 +3774,28 @@
         <v>14</v>
       </c>
       <c r="N58" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="I59" s="4" t="s">
-        <v>256</v>
+      <c r="I59" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>67</v>
@@ -3804,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -3812,25 +3815,25 @@
         <v>17</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>270</v>
+      <c r="I60" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J60" s="4">
         <v>2023</v>
@@ -3842,28 +3845,28 @@
         <v>14</v>
       </c>
       <c r="N60" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="I61" s="4" t="s">
-        <v>256</v>
+      <c r="I61" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>67</v>
@@ -3875,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
@@ -3883,22 +3886,22 @@
         <v>17</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D62" s="15" t="s">
+      <c r="E62" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>270</v>
+      <c r="I62" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J62" s="4">
         <v>2023</v>
@@ -3910,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="96.6" x14ac:dyDescent="0.3">
@@ -3918,22 +3921,22 @@
         <v>17</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>270</v>
+      <c r="I63" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J63" s="4">
         <v>2023</v>
@@ -3945,7 +3948,7 @@
         <v>15</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -3953,25 +3956,25 @@
         <v>17</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>270</v>
+      <c r="I64" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J64" s="4">
         <v>2023</v>
@@ -3983,7 +3986,7 @@
         <v>15</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -3991,20 +3994,20 @@
         <v>17</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="16"/>
-      <c r="I65" s="4" t="s">
-        <v>270</v>
+      <c r="I65" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J65" s="4">
         <v>2023</v>
@@ -4016,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -4024,20 +4027,20 @@
         <v>17</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="16"/>
-      <c r="I66" s="4" t="s">
-        <v>271</v>
+      <c r="I66" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J66" s="4">
         <v>2023</v>
@@ -4049,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -4057,20 +4060,20 @@
         <v>17</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="I67" s="4" t="s">
-        <v>270</v>
+      <c r="I67" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J67" s="4">
         <v>2023</v>
@@ -4082,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -4090,20 +4093,20 @@
         <v>17</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="I68" s="4" t="s">
-        <v>271</v>
+      <c r="I68" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J68" s="4">
         <v>2023</v>
@@ -4115,28 +4118,28 @@
         <v>16</v>
       </c>
       <c r="N68" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="I69" s="4" t="s">
-        <v>256</v>
+      <c r="I69" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>67</v>
@@ -4148,7 +4151,7 @@
         <v>16</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -4156,25 +4159,25 @@
         <v>17</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>270</v>
+      <c r="I70" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J70" s="4">
         <v>2023</v>
@@ -4186,7 +4189,7 @@
         <v>16</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -4194,20 +4197,20 @@
         <v>17</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F71" s="16"/>
-      <c r="I71" s="4" t="s">
-        <v>270</v>
+      <c r="I71" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J71" s="4">
         <v>2023</v>
@@ -4219,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -4227,20 +4230,20 @@
         <v>17</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="I72" s="4" t="s">
-        <v>271</v>
+      <c r="I72" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J72" s="4">
         <v>2023</v>
@@ -4252,40 +4255,40 @@
         <v>16</v>
       </c>
       <c r="N72" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="I73" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K73" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="4">
+        <v>17</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="I73" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J73" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K73" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M73" s="4">
-        <v>17</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -4293,32 +4296,32 @@
         <v>17</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="I74" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K74" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="4">
+        <v>17</v>
+      </c>
+      <c r="N74" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="16"/>
-      <c r="I74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J74" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K74" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M74" s="4">
-        <v>17</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -4326,20 +4329,20 @@
         <v>17</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="16"/>
-      <c r="I75" s="4" t="s">
-        <v>271</v>
+      <c r="I75" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J75" s="4">
         <v>2023</v>
@@ -4351,7 +4354,7 @@
         <v>17</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -4359,32 +4362,32 @@
         <v>17</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="I76" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K76" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="4">
+        <v>17</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="I76" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J76" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K76" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M76" s="4">
-        <v>17</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -4392,20 +4395,20 @@
         <v>17</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="16"/>
-      <c r="I77" s="4" t="s">
-        <v>271</v>
+      <c r="I77" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J77" s="4">
         <v>2023</v>
@@ -4417,7 +4420,7 @@
         <v>17</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -4425,32 +4428,32 @@
         <v>17</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="I78" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J78" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K78" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="4">
+        <v>17</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="I78" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J78" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K78" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M78" s="4">
-        <v>17</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -4458,20 +4461,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="16"/>
-      <c r="I79" s="4" t="s">
-        <v>271</v>
+      <c r="I79" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="J79" s="4">
         <v>2023</v>
@@ -4483,7 +4486,7 @@
         <v>17</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
@@ -4491,25 +4494,25 @@
         <v>17</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>270</v>
+      <c r="I80" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J80" s="4">
         <v>2023</v>
@@ -4521,7 +4524,7 @@
         <v>17</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -4529,20 +4532,20 @@
         <v>38</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>91</v>
       </c>
       <c r="F81" s="25"/>
-      <c r="I81" s="4" t="s">
-        <v>270</v>
+      <c r="I81" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J81" s="4">
         <v>2023</v>
@@ -4554,7 +4557,7 @@
         <v>18</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -4562,20 +4565,20 @@
         <v>38</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>91</v>
       </c>
       <c r="F82" s="25"/>
-      <c r="I82" s="4" t="s">
-        <v>270</v>
+      <c r="I82" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="J82" s="4">
         <v>2023</v>
@@ -4587,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -5338,6 +5341,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="26426b46a5c0c1d258bf284d595ef36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a995b3ef3034e03d49cf2989483892d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5614,29 +5639,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5655,31 +5685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>